--- a/FileInput/DataEngine.xlsx
+++ b/FileInput/DataEngine.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\7oclock_OJT\ERP_Hybrid\FileInput\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFE8BACC-015E-4FB9-90AF-1B45ABC2139B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="1" xr2:uid="{971EB3B9-F306-4FE6-9A78-A9C0555783B4}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" sheetId="1" r:id="rId1"/>
     <sheet name="ApplicationLogin" sheetId="2" r:id="rId2"/>
+    <sheet name="StockCategory" sheetId="3" r:id="rId3"/>
+    <sheet name="Supplier" sheetId="4" r:id="rId4"/>
+    <sheet name="Customer" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="121">
   <si>
     <t>TCID</t>
   </si>
@@ -43,9 +40,6 @@
     <t>TC001</t>
   </si>
   <si>
-    <t>Tc003</t>
-  </si>
-  <si>
     <t>TC004</t>
   </si>
   <si>
@@ -64,116 +58,341 @@
     <t>Customer</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>ObjectType</t>
+  </si>
+  <si>
+    <t>LocatorType</t>
+  </si>
+  <si>
+    <t>LocatorValue</t>
+  </si>
+  <si>
+    <t>TestData</t>
+  </si>
+  <si>
+    <t>Launch Browser</t>
+  </si>
+  <si>
+    <t>startBrowser</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Launch Application Url</t>
+  </si>
+  <si>
+    <t>openUrl</t>
+  </si>
+  <si>
+    <t>Wait For Username</t>
+  </si>
+  <si>
+    <t>waitForElement</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>Enter username</t>
+  </si>
+  <si>
+    <t>typeAction</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Enter Password</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>//input[@id='password']</t>
+  </si>
+  <si>
+    <t>master</t>
+  </si>
+  <si>
+    <t>Click Login Button</t>
+  </si>
+  <si>
+    <t>clickAction</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>btnsubmit</t>
+  </si>
+  <si>
+    <t>Wait for Logout Link</t>
+  </si>
+  <si>
+    <t>(//a[starts-with(text(),' Logout')])[2]</t>
+  </si>
+  <si>
+    <t>Validate Page title</t>
+  </si>
+  <si>
+    <t>validateTitle</t>
+  </si>
+  <si>
+    <t>Dashboard « Stock Accounting</t>
+  </si>
+  <si>
+    <t>Click logout Link</t>
+  </si>
+  <si>
+    <t>closeBrowser</t>
+  </si>
+  <si>
+    <t>Close  application Browser</t>
+  </si>
+  <si>
+    <t>TC003</t>
+  </si>
+  <si>
+    <t>wait For Stock items link</t>
+  </si>
+  <si>
+    <t>//a[.='Stock Items ']</t>
+  </si>
+  <si>
+    <t>Mouse click to Stock items</t>
+  </si>
+  <si>
+    <t>mouseClick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wait for Add+ icon </t>
+  </si>
+  <si>
+    <t>(//span[@data-caption='Add'])[1]</t>
+  </si>
+  <si>
+    <t>Click Add +Icon</t>
+  </si>
+  <si>
+    <t>Wait For Category Name</t>
+  </si>
+  <si>
+    <t>x_Category_Name</t>
+  </si>
+  <si>
+    <t>Enter Category Name</t>
+  </si>
+  <si>
+    <t>BabyandKids</t>
+  </si>
+  <si>
+    <t>Click Add button</t>
+  </si>
+  <si>
+    <t>btnAction</t>
+  </si>
+  <si>
+    <t>Wait for Cofirm button</t>
+  </si>
+  <si>
+    <t>click cofirm ok button</t>
+  </si>
+  <si>
+    <t>//button[normalize-space()='OK!']</t>
+  </si>
+  <si>
+    <t>Wait for Alert ok</t>
+  </si>
+  <si>
+    <t>Click Alert ok</t>
+  </si>
+  <si>
+    <t>(//button[contains(.,'OK')])[6]</t>
+  </si>
+  <si>
+    <t>Validate table</t>
+  </si>
+  <si>
+    <t>categoryTable</t>
+  </si>
+  <si>
+    <t>Wait for supplier link</t>
+  </si>
+  <si>
+    <t>Click supplier link</t>
+  </si>
+  <si>
+    <t>(//a[contains(.,'Suppliers')])[2]</t>
+  </si>
+  <si>
+    <t>wait for supplier number</t>
+  </si>
+  <si>
+    <t>capture supllier number</t>
+  </si>
+  <si>
+    <t>captureData</t>
+  </si>
+  <si>
+    <t>x_Supplier_Number</t>
+  </si>
+  <si>
+    <t>Enter supplier name</t>
+  </si>
+  <si>
+    <t>Ranga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter Address </t>
+  </si>
+  <si>
+    <t>Ameerpert</t>
+  </si>
+  <si>
+    <t>Enter city</t>
+  </si>
+  <si>
+    <t>Enter country</t>
+  </si>
+  <si>
+    <t>Enter Contact person</t>
+  </si>
+  <si>
+    <t>Enter phone number</t>
+  </si>
+  <si>
+    <t>Enter Email</t>
+  </si>
+  <si>
+    <t>Enter Mobile Number</t>
+  </si>
+  <si>
+    <t>Enter Notes</t>
+  </si>
+  <si>
+    <t>//textarea[@id='x_Address']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Supplier_Name']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_City']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Country']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Contact_Person']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Phone_Number']</t>
+  </si>
+  <si>
+    <t>//input[@id='x__Email']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Mobile_Number']</t>
+  </si>
+  <si>
+    <t>//textarea[@id='x_Notes']</t>
+  </si>
+  <si>
+    <t>Hyderbad</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Qedge</t>
+  </si>
+  <si>
+    <t>tet@gmail.com</t>
+  </si>
+  <si>
+    <t>Supply Goods for Electronics</t>
+  </si>
+  <si>
+    <t>supplierTable</t>
+  </si>
+  <si>
+    <t>Wait for customer link</t>
+  </si>
+  <si>
+    <t>Click customer link</t>
+  </si>
+  <si>
+    <t>//a[contains(@data-caption,'Add')][1]</t>
+  </si>
+  <si>
+    <t>wait for customer number</t>
+  </si>
+  <si>
+    <t>capture customer number</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Customer_Name']</t>
+  </si>
+  <si>
+    <t>Enter Customer name</t>
+  </si>
+  <si>
+    <t>Anusha</t>
+  </si>
+  <si>
+    <t>vizag</t>
+  </si>
+  <si>
+    <t>Enter Customer Address</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Notes']</t>
+  </si>
+  <si>
+    <t>Gajuwaka</t>
+  </si>
+  <si>
+    <t>Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>ajay</t>
+  </si>
+  <si>
+    <t>seruanu98</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>customerTable</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>ObjectType</t>
-  </si>
-  <si>
-    <t>LocatorType</t>
-  </si>
-  <si>
-    <t>LocatorValue</t>
-  </si>
-  <si>
-    <t>TestData</t>
-  </si>
-  <si>
-    <t>Launch Browser</t>
-  </si>
-  <si>
-    <t>startBrowser</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Launch Application Url</t>
-  </si>
-  <si>
-    <t>openUrl</t>
-  </si>
-  <si>
-    <t>Wait For Username</t>
-  </si>
-  <si>
-    <t>waitForElement</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>Enter username</t>
-  </si>
-  <si>
-    <t>typeAction</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>Enter Password</t>
-  </si>
-  <si>
-    <t>xpath</t>
-  </si>
-  <si>
-    <t>//input[@id='password']</t>
-  </si>
-  <si>
-    <t>master</t>
-  </si>
-  <si>
-    <t>Click Login Button</t>
-  </si>
-  <si>
-    <t>clickAction</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>btnsubmit</t>
-  </si>
-  <si>
-    <t>Wait for Logout Link</t>
-  </si>
-  <si>
-    <t>(//a[starts-with(text(),' Logout')])[2]</t>
-  </si>
-  <si>
-    <t>Validate Page title</t>
-  </si>
-  <si>
-    <t>validateTitle</t>
-  </si>
-  <si>
-    <t>Dashboard « Stock Accounting</t>
-  </si>
-  <si>
-    <t>Click logout Link</t>
-  </si>
-  <si>
-    <t>closeBrowser</t>
-  </si>
-  <si>
-    <t>Close  application Browser</t>
+    <t>//li[@id='mi_a_customers']//a[@href='a_customerslist.php'][normalize-space()='Customers']</t>
+  </si>
+  <si>
+    <t>captureData1</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Customer_Number']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,7 +439,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -243,15 +462,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -312,7 +556,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -364,7 +608,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -558,29 +802,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0EC959-34E9-4E2F-B422-5C901D1D33F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.75" x14ac:dyDescent="1.35">
+    <row r="1" spans="1:4" ht="28.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,48 +838,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -645,221 +889,1678 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FF6727-0E52-47F8-AA5A-7BDB66D4C156}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.2265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.76953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="1">
+    <row r="1" spans="1:6" ht="21">
       <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="2" spans="1:6" ht="15.75">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75">
+      <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.8">
-      <c r="A3" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75">
+      <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.8">
-      <c r="A4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="E4" s="3">
         <v>10</v>
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="5" spans="1:6" ht="15.75">
       <c r="A5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75">
+      <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.8">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75">
+      <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.8">
-      <c r="A7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="E7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75">
+      <c r="A8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.8">
-      <c r="A8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="E8" s="3">
         <v>10</v>
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="9" spans="1:6" ht="15.75">
       <c r="A9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75">
+      <c r="A10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="B10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75">
+      <c r="A11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21">
+      <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="3">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75">
+      <c r="A5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75">
+      <c r="A6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75">
+      <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75">
+      <c r="A8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="3">
+        <v>10</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75">
+      <c r="A9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75">
+      <c r="A10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75">
+      <c r="A11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75">
+      <c r="A12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75">
+      <c r="A13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75">
+      <c r="A14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75">
+      <c r="A15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="5">
+        <v>10</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75">
+      <c r="A16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75">
+      <c r="A17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="5">
+        <v>10</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75">
+      <c r="A18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75">
+      <c r="A19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75">
+      <c r="A20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21">
+      <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="3">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75">
+      <c r="A5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75">
+      <c r="A6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75">
+      <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75">
+      <c r="A8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="3">
+        <v>10</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75">
+      <c r="A9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="E9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75">
+      <c r="A10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75">
+      <c r="A11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75">
+      <c r="A12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75">
+      <c r="A13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75">
+      <c r="A14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75">
+      <c r="A15" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75">
+      <c r="A16" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75">
+      <c r="A17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75">
+      <c r="A18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75">
+      <c r="A19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="3">
+        <v>9876543217</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75">
+      <c r="A20" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75">
+      <c r="A21" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="3">
+        <v>8765432345</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75">
+      <c r="A22" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75">
+      <c r="A23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75">
+      <c r="A24" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="5">
+        <v>10</v>
+      </c>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75">
+      <c r="A25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75">
+      <c r="A26" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="5">
+        <v>10</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75">
+      <c r="A27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75">
+      <c r="A28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75">
+      <c r="A29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.8">
-      <c r="A10" s="3" t="s">
+      <c r="C29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E20" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21">
+      <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="3">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75">
+      <c r="A5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75">
+      <c r="A6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75">
+      <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75">
+      <c r="A8" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75">
+      <c r="A9" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75">
+      <c r="A10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75">
+      <c r="A11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75">
+      <c r="A12" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75">
+      <c r="A13" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75">
+      <c r="A14" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75">
+      <c r="A15" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75">
+      <c r="A16" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75">
+      <c r="A17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75">
+      <c r="A18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75">
+      <c r="A19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19">
+        <v>456888566</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75">
+      <c r="A20" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75">
+      <c r="A21" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21">
+        <v>5548987445</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75">
+      <c r="A22" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75">
+      <c r="A23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75">
+      <c r="A24" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75">
+      <c r="A25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75">
+      <c r="A26" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75">
+      <c r="A27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75">
+      <c r="A28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75">
+      <c r="A29" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.8">
-      <c r="A11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FileInput/DataEngine.xlsx
+++ b/FileInput/DataEngine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19380" windowHeight="10380" activeTab="3"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19380" windowHeight="10380"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" sheetId="1" r:id="rId1"/>
@@ -739,7 +739,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -749,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -783,7 +783,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -807,7 +807,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -839,10 +839,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1056,15 +1056,15 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F20"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1439,17 +1439,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.3">

--- a/FileInput/DataEngine.xlsx
+++ b/FileInput/DataEngine.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19380" windowHeight="10380" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="11940" windowHeight="6540"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,8 @@
     <sheet name="StockCategory" sheetId="3" r:id="rId3"/>
     <sheet name="Supplier" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
+  <oleSize ref="A1:G18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="100">
   <si>
     <t>TCID</t>
   </si>
@@ -58,9 +59,6 @@
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>Description</t>
@@ -330,8 +328,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -739,29 +737,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="28.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -775,7 +773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="18.75">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -787,7 +785,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="18.75">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -799,9 +797,9 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="18.75">
       <c r="A4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -811,7 +809,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="18.75">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -819,7 +817,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -830,219 +828,219 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="21">
       <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75">
       <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75">
+      <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75">
+      <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="E4" s="3">
         <v>10</v>
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.75">
       <c r="A5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75">
+      <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="B6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75">
+      <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75">
+      <c r="A8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="E8" s="3">
         <v>10</v>
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75">
       <c r="A9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75">
+      <c r="A10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75">
+      <c r="A11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="C11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -1052,381 +1050,381 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="21">
       <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75">
       <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75">
+      <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75">
+      <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="E4" s="3">
         <v>10</v>
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.75">
       <c r="A5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75">
+      <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="B6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75">
+      <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15.75">
       <c r="A8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="E8" s="3">
         <v>10</v>
       </c>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75">
       <c r="A9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75">
+      <c r="A10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="B10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="E10" s="3">
         <v>10</v>
       </c>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15.75">
       <c r="A11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75">
+      <c r="A12" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="E12" s="3">
         <v>10</v>
       </c>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15.75">
       <c r="A13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75">
+      <c r="A14" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="B14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75">
+      <c r="A15" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="B15" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" s="5">
         <v>10</v>
       </c>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75">
       <c r="A16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75">
+      <c r="A17" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="B17" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" s="5">
         <v>10</v>
       </c>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15.75">
       <c r="A18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75">
+      <c r="A19" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="C19" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15.75">
       <c r="A20" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F20" s="3"/>
     </row>
@@ -1436,543 +1434,543 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="21">
       <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75">
       <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75">
+      <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75">
+      <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="E4" s="3">
         <v>10</v>
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.75">
       <c r="A5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75">
+      <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="B6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75">
+      <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15.75">
       <c r="A8" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="3">
         <v>10</v>
       </c>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75">
       <c r="A9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15.75">
       <c r="A10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="E10" s="3">
         <v>10</v>
       </c>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15.75">
       <c r="A11" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75">
+      <c r="A12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" s="3">
         <v>10</v>
       </c>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15.75">
       <c r="A13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75">
+      <c r="A14" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="B14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75">
+      <c r="A15" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75">
+      <c r="A16" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="E16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75">
+      <c r="A17" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="B17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75">
+      <c r="A18" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="B18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75">
+      <c r="A19" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="B19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="E19" s="3">
         <v>9876543217</v>
       </c>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15.75">
       <c r="A20" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75">
+      <c r="A21" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="B21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="E21" s="3">
         <v>8765432345</v>
       </c>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15.75">
       <c r="A22" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15.75">
       <c r="A23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75">
+      <c r="A24" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="B24" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E24" s="5">
         <v>10</v>
       </c>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15.75">
       <c r="A25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="E25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75">
+      <c r="A26" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="B26" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E26" s="5">
         <v>10</v>
       </c>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15.75">
       <c r="A27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="E27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75">
+      <c r="A28" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="B28" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15.75">
       <c r="A29" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F29" s="3"/>
     </row>

--- a/FileInput/DataEngine.xlsx
+++ b/FileInput/DataEngine.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\7oclock_OJT\ERP_Hybrid\FileInput\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F1C94C-9B30-47C4-BF1F-7C530B6F1563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="3" xr2:uid="{971EB3B9-F306-4FE6-9A78-A9C0555783B4}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" sheetId="1" r:id="rId1"/>
     <sheet name="ApplicationLogin" sheetId="2" r:id="rId2"/>
     <sheet name="StockCategory" sheetId="3" r:id="rId3"/>
     <sheet name="Supplier" sheetId="4" r:id="rId4"/>
+    <sheet name="Customer" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="102">
   <si>
     <t>TCID</t>
   </si>
@@ -331,13 +326,16 @@
   </si>
   <si>
     <t>supplierTable</t>
+  </si>
+  <si>
+    <t>Wait for Customer Link</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,7 +382,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -407,11 +405,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -419,6 +428,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,7 +489,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -531,7 +541,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -725,29 +735,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0EC959-34E9-4E2F-B422-5C901D1D33F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.75" x14ac:dyDescent="1.35">
+    <row r="1" spans="1:4" ht="28.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -761,7 +771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -769,10 +779,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -783,7 +793,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -791,10 +801,10 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -812,23 +822,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FF6727-0E52-47F8-AA5A-7BDB66D4C156}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.2265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.76953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="1">
+    <row r="1" spans="1:6" ht="21">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -848,7 +858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="2" spans="1:6" ht="15.75">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -866,7 +876,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="3" spans="1:6" ht="15.75">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -884,7 +894,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="4" spans="1:6" ht="15.75">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
@@ -902,7 +912,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="5" spans="1:6" ht="15.75">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -920,7 +930,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="6" spans="1:6" ht="15.75">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
@@ -938,7 +948,7 @@
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="7" spans="1:6" ht="15.75">
       <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
@@ -956,7 +966,7 @@
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="8" spans="1:6" ht="15.75">
       <c r="A8" s="3" t="s">
         <v>38</v>
       </c>
@@ -974,7 +984,7 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="9" spans="1:6" ht="15.75">
       <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
@@ -992,7 +1002,7 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="10" spans="1:6" ht="15.75">
       <c r="A10" s="3" t="s">
         <v>43</v>
       </c>
@@ -1010,7 +1020,7 @@
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="11" spans="1:6" ht="15.75">
       <c r="A11" s="3" t="s">
         <v>45</v>
       </c>
@@ -1034,23 +1044,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677DF49C-824A-475D-AC35-87FC48ADA506}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:F20"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.2265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.76953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.58984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="1">
+    <row r="1" spans="1:6" ht="21">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -1070,7 +1080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="2" spans="1:6" ht="15.75">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -1088,7 +1098,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="3" spans="1:6" ht="15.75">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -1106,7 +1116,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="4" spans="1:6" ht="15.75">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
@@ -1124,7 +1134,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="5" spans="1:6" ht="15.75">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1142,7 +1152,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="6" spans="1:6" ht="15.75">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
@@ -1160,7 +1170,7 @@
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="7" spans="1:6" ht="15.75">
       <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
@@ -1178,7 +1188,7 @@
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="8" spans="1:6" ht="15.75">
       <c r="A8" s="5" t="s">
         <v>47</v>
       </c>
@@ -1196,7 +1206,7 @@
       </c>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="9" spans="1:6" ht="15.75">
       <c r="A9" s="5" t="s">
         <v>49</v>
       </c>
@@ -1214,7 +1224,7 @@
       </c>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="10" spans="1:6" ht="15.75">
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
@@ -1232,7 +1242,7 @@
       </c>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="11" spans="1:6" ht="15.75">
       <c r="A11" s="5" t="s">
         <v>53</v>
       </c>
@@ -1250,7 +1260,7 @@
       </c>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="12" spans="1:6" ht="15.75">
       <c r="A12" s="5" t="s">
         <v>54</v>
       </c>
@@ -1268,7 +1278,7 @@
       </c>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="13" spans="1:6" ht="15.75">
       <c r="A13" s="5" t="s">
         <v>56</v>
       </c>
@@ -1286,7 +1296,7 @@
       </c>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="14" spans="1:6" ht="15.75">
       <c r="A14" s="5" t="s">
         <v>58</v>
       </c>
@@ -1304,7 +1314,7 @@
       </c>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="15" spans="1:6" ht="15.75">
       <c r="A15" s="5" t="s">
         <v>60</v>
       </c>
@@ -1322,7 +1332,7 @@
       </c>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="16" spans="1:6" ht="15.75">
       <c r="A16" s="5" t="s">
         <v>61</v>
       </c>
@@ -1340,7 +1350,7 @@
       </c>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="17" spans="1:6" ht="15.75">
       <c r="A17" s="5" t="s">
         <v>63</v>
       </c>
@@ -1358,7 +1368,7 @@
       </c>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="18" spans="1:6" ht="15.75">
       <c r="A18" s="5" t="s">
         <v>64</v>
       </c>
@@ -1376,7 +1386,7 @@
       </c>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="19" spans="1:6" ht="15.75">
       <c r="A19" s="5" t="s">
         <v>66</v>
       </c>
@@ -1394,7 +1404,7 @@
       </c>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="20" spans="1:6" ht="15.75">
       <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
@@ -1418,23 +1428,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CDBDE4-3F31-4FD8-A7BD-2151CDFD58D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.2265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.76953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.04296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.5703125" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="1">
+    <row r="1" spans="1:6" ht="21">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -1454,7 +1464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="2" spans="1:6" ht="15.75">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -1472,7 +1482,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="3" spans="1:6" ht="15.75">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -1490,7 +1500,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="4" spans="1:6" ht="15.75">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
@@ -1508,7 +1518,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="5" spans="1:6" ht="15.75">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1526,7 +1536,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="6" spans="1:6" ht="15.75">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
@@ -1544,7 +1554,7 @@
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="7" spans="1:6" ht="15.75">
       <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
@@ -1562,7 +1572,7 @@
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="8" spans="1:6" ht="15.75">
       <c r="A8" s="5" t="s">
         <v>68</v>
       </c>
@@ -1580,7 +1590,7 @@
       </c>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="9" spans="1:6" ht="15.75">
       <c r="A9" s="5" t="s">
         <v>69</v>
       </c>
@@ -1598,7 +1608,7 @@
       </c>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="10" spans="1:6" ht="15.75">
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
@@ -1616,7 +1626,7 @@
       </c>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="11" spans="1:6" ht="15.75">
       <c r="A11" s="5" t="s">
         <v>53</v>
       </c>
@@ -1634,7 +1644,7 @@
       </c>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="12" spans="1:6" ht="15.75">
       <c r="A12" s="5" t="s">
         <v>71</v>
       </c>
@@ -1652,7 +1662,7 @@
       </c>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="13" spans="1:6" ht="15.75">
       <c r="A13" s="5" t="s">
         <v>72</v>
       </c>
@@ -1670,7 +1680,7 @@
       </c>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="14" spans="1:6" ht="15.75">
       <c r="A14" s="5" t="s">
         <v>75</v>
       </c>
@@ -1688,7 +1698,7 @@
       </c>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="15" spans="1:6" ht="15.75">
       <c r="A15" s="5" t="s">
         <v>77</v>
       </c>
@@ -1706,7 +1716,7 @@
       </c>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="16" spans="1:6" ht="15.75">
       <c r="A16" s="5" t="s">
         <v>79</v>
       </c>
@@ -1724,7 +1734,7 @@
       </c>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="17" spans="1:6" ht="15.75">
       <c r="A17" s="5" t="s">
         <v>80</v>
       </c>
@@ -1742,7 +1752,7 @@
       </c>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="18" spans="1:6" ht="15.75">
       <c r="A18" s="5" t="s">
         <v>81</v>
       </c>
@@ -1760,7 +1770,7 @@
       </c>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="19" spans="1:6" ht="15.75">
       <c r="A19" s="5" t="s">
         <v>82</v>
       </c>
@@ -1778,7 +1788,7 @@
       </c>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="20" spans="1:6" ht="15.75">
       <c r="A20" s="5" t="s">
         <v>83</v>
       </c>
@@ -1796,7 +1806,7 @@
       </c>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="21" spans="1:6" ht="15.75">
       <c r="A21" s="5" t="s">
         <v>84</v>
       </c>
@@ -1814,7 +1824,7 @@
       </c>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="22" spans="1:6" ht="15.75">
       <c r="A22" s="5" t="s">
         <v>85</v>
       </c>
@@ -1832,7 +1842,7 @@
       </c>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="23" spans="1:6" ht="15.75">
       <c r="A23" s="5" t="s">
         <v>58</v>
       </c>
@@ -1850,7 +1860,7 @@
       </c>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="24" spans="1:6" ht="15.75">
       <c r="A24" s="5" t="s">
         <v>60</v>
       </c>
@@ -1868,7 +1878,7 @@
       </c>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="25" spans="1:6" ht="15.75">
       <c r="A25" s="5" t="s">
         <v>61</v>
       </c>
@@ -1886,7 +1896,7 @@
       </c>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="26" spans="1:6" ht="15.75">
       <c r="A26" s="5" t="s">
         <v>63</v>
       </c>
@@ -1904,7 +1914,7 @@
       </c>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="27" spans="1:6" ht="15.75">
       <c r="A27" s="5" t="s">
         <v>64</v>
       </c>
@@ -1922,7 +1932,7 @@
       </c>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="28" spans="1:6" ht="15.75">
       <c r="A28" s="5" t="s">
         <v>66</v>
       </c>
@@ -1940,7 +1950,7 @@
       </c>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="29" spans="1:6" ht="15.75">
       <c r="A29" s="3" t="s">
         <v>45</v>
       </c>
@@ -1960,8 +1970,174 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E20" r:id="rId1" xr:uid="{EBABBDC3-5AE7-4620-9F55-6EC60C186872}"/>
+    <hyperlink ref="E20" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75">
+      <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75">
+      <c r="A5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75">
+      <c r="A6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75">
+      <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75">
+      <c r="A8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FileInput/DataEngine.xlsx
+++ b/FileInput/DataEngine.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="114">
   <si>
     <t>TCID</t>
   </si>
@@ -329,13 +329,49 @@
   </si>
   <si>
     <t>Wait for Customer Link</t>
+  </si>
+  <si>
+    <t>Click Customer Link</t>
+  </si>
+  <si>
+    <t>wait for customer number</t>
+  </si>
+  <si>
+    <t>capture customer number</t>
+  </si>
+  <si>
+    <t>Enter customer name</t>
+  </si>
+  <si>
+    <t>Tony</t>
+  </si>
+  <si>
+    <t>Ameerpet</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>customerTable</t>
+  </si>
+  <si>
+    <t>(//a[contains(.,'Customers')])[2]</t>
+  </si>
+  <si>
+    <t>x_Customer_Number</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Customer_Name']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Notes']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,6 +403,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -382,7 +434,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -405,20 +457,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -428,9 +473,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -735,7 +781,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -746,7 +792,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -779,7 +825,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -790,7 +836,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -801,7 +847,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -812,7 +858,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1048,7 +1094,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1432,7 +1478,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1978,19 +2024,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2123,7 +2169,7 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="15.75">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>101</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -2132,12 +2178,397 @@
       <c r="C8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="E8" s="3">
         <v>10</v>
       </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75">
+      <c r="A9" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75">
+      <c r="A10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75">
+      <c r="A11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75">
+      <c r="A12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75">
+      <c r="A13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75">
+      <c r="A14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75">
+      <c r="A15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75">
+      <c r="A16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75">
+      <c r="A17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75">
+      <c r="A18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75">
+      <c r="A19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="3">
+        <v>9876543218</v>
+      </c>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75">
+      <c r="A20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75">
+      <c r="A21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="3">
+        <v>8765432346</v>
+      </c>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75">
+      <c r="A22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75">
+      <c r="A23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75">
+      <c r="A24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="3">
+        <v>10</v>
+      </c>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75">
+      <c r="A25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75">
+      <c r="A26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="3">
+        <v>10</v>
+      </c>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75">
+      <c r="A27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75">
+      <c r="A28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75">
+      <c r="A29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E20" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/FileInput/DataEngine.xlsx
+++ b/FileInput/DataEngine.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\7oclock_OJT\ERP_Hybrid\FileInput\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OJT\StockAccounting_Project\FileInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFE8BACC-015E-4FB9-90AF-1B45ABC2139B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="1" xr2:uid="{971EB3B9-F306-4FE6-9A78-A9C0555783B4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" sheetId="1" r:id="rId1"/>
     <sheet name="ApplicationLogin" sheetId="2" r:id="rId2"/>
+    <sheet name="StockCategory" sheetId="3" r:id="rId3"/>
+    <sheet name="Supplier" sheetId="4" r:id="rId4"/>
+    <sheet name="Customer" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="101">
   <si>
     <t>TCID</t>
   </si>
@@ -43,9 +45,6 @@
     <t>TC001</t>
   </si>
   <si>
-    <t>Tc003</t>
-  </si>
-  <si>
     <t>TC004</t>
   </si>
   <si>
@@ -167,12 +166,177 @@
   </si>
   <si>
     <t>Close  application Browser</t>
+  </si>
+  <si>
+    <t>TC003</t>
+  </si>
+  <si>
+    <t>wait For Stock items link</t>
+  </si>
+  <si>
+    <t>//a[.='Stock Items ']</t>
+  </si>
+  <si>
+    <t>Mouse click to Stock items</t>
+  </si>
+  <si>
+    <t>mouseClick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wait for Add+ icon </t>
+  </si>
+  <si>
+    <t>(//span[@data-caption='Add'])[1]</t>
+  </si>
+  <si>
+    <t>Click Add +Icon</t>
+  </si>
+  <si>
+    <t>Wait For Category Name</t>
+  </si>
+  <si>
+    <t>x_Category_Name</t>
+  </si>
+  <si>
+    <t>Enter Category Name</t>
+  </si>
+  <si>
+    <t>Click Add button</t>
+  </si>
+  <si>
+    <t>btnAction</t>
+  </si>
+  <si>
+    <t>Wait for Cofirm button</t>
+  </si>
+  <si>
+    <t>click cofirm ok button</t>
+  </si>
+  <si>
+    <t>//button[normalize-space()='OK!']</t>
+  </si>
+  <si>
+    <t>Wait for Alert ok</t>
+  </si>
+  <si>
+    <t>Click Alert ok</t>
+  </si>
+  <si>
+    <t>(//button[contains(.,'OK')])[6]</t>
+  </si>
+  <si>
+    <t>Validate table</t>
+  </si>
+  <si>
+    <t>categoryTable</t>
+  </si>
+  <si>
+    <t>Wait for supplier link</t>
+  </si>
+  <si>
+    <t>Click supplier link</t>
+  </si>
+  <si>
+    <t>(//a[contains(.,'Suppliers')])[2]</t>
+  </si>
+  <si>
+    <t>wait for supplier number</t>
+  </si>
+  <si>
+    <t>capture supllier number</t>
+  </si>
+  <si>
+    <t>captureData</t>
+  </si>
+  <si>
+    <t>x_Supplier_Number</t>
+  </si>
+  <si>
+    <t>Enter supplier name</t>
+  </si>
+  <si>
+    <t>Ranga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter Address </t>
+  </si>
+  <si>
+    <t>Ameerpert</t>
+  </si>
+  <si>
+    <t>Enter city</t>
+  </si>
+  <si>
+    <t>Enter country</t>
+  </si>
+  <si>
+    <t>Enter Contact person</t>
+  </si>
+  <si>
+    <t>Enter phone number</t>
+  </si>
+  <si>
+    <t>Enter Email</t>
+  </si>
+  <si>
+    <t>Enter Mobile Number</t>
+  </si>
+  <si>
+    <t>Enter Notes</t>
+  </si>
+  <si>
+    <t>//textarea[@id='x_Address']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Supplier_Name']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_City']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Country']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Contact_Person']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Phone_Number']</t>
+  </si>
+  <si>
+    <t>//input[@id='x__Email']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Mobile_Number']</t>
+  </si>
+  <si>
+    <t>//textarea[@id='x_Notes']</t>
+  </si>
+  <si>
+    <t>Hyderbad</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Qedge</t>
+  </si>
+  <si>
+    <t>tet@gmail.com</t>
+  </si>
+  <si>
+    <t>Supply Goods for Electronics</t>
+  </si>
+  <si>
+    <t>supplierTable</t>
+  </si>
+  <si>
+    <t>Apple-Macbook</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -247,11 +411,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,22 +732,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0EC959-34E9-4E2F-B422-5C901D1D33F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.75" x14ac:dyDescent="1.35">
+    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,48 +761,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -645,223 +812,1170 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FF6727-0E52-47F8-AA5A-7BDB66D4C156}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.2265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.76953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="1">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.8">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.8">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="E4" s="3">
         <v>10</v>
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.8">
-      <c r="A6" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.8">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.8">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="E8" s="3">
         <v>10</v>
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.8">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.8">
-      <c r="A11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="C11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="3">
+        <v>10</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="5">
+        <v>10</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="5">
+        <v>10</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="3">
+        <v>10</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="3">
+        <v>9876543217</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="3">
+        <v>8765432345</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="5">
+        <v>10</v>
+      </c>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="5">
+        <v>10</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E20" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>